--- a/branches/medicationline/StructureDefinition-be-medicationdispense.xlsx
+++ b/branches/medicationline/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T10:53:39+00:00</t>
+    <t>2024-03-30T10:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/medicationline/StructureDefinition-be-medicationdispense.xlsx
+++ b/branches/medicationline/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T10:56:30+00:00</t>
+    <t>2024-03-30T13:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/medicationline/StructureDefinition-be-medicationdispense.xlsx
+++ b/branches/medicationline/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T13:34:04+00:00</t>
+    <t>2024-03-30T13:49:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/medicationline/StructureDefinition-be-medicationdispense.xlsx
+++ b/branches/medicationline/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T13:49:38+00:00</t>
+    <t>2024-03-30T14:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/medicationline/StructureDefinition-be-medicationdispense.xlsx
+++ b/branches/medicationline/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T14:41:48+00:00</t>
+    <t>2024-03-30T19:04:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
